--- a/experiment result/64_0.8_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.8_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01393291011829365</v>
+        <v>0.002487745724247265</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01732052705012254</v>
+        <v>0.002622818531305172</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02241140053671445</v>
+        <v>0.002669143317035133</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02869710953669661</v>
+        <v>0.003668253788004301</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02823345041256188</v>
+        <v>0.001880832485940445</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04697904851037089</v>
+        <v>0.01782667627940956</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02255808474054837</v>
+        <v>0.001509086448391552</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01205798721766408</v>
+        <v>0.002347489685972586</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03009941611603715</v>
+        <v>0.007753928780907587</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03002000178025571</v>
+        <v>0.003978915272205559</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03362157137329017</v>
+        <v>0.02035530630304726</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03794071252681997</v>
+        <v>0.02126542250473708</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02542833600979557</v>
+        <v>0.006024671300656504</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02770210598690663</v>
+        <v>0.00580857410701488</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02366967793209282</v>
+        <v>0.003585725114272536</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03539154513547432</v>
+        <v>0.006563393838972734</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0423854468671053</v>
+        <v>0.01079038980165066</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01070843907200005</v>
+        <v>0.002611765891307383</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0240371013632865</v>
+        <v>0.003317196783557466</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04072113066977889</v>
+        <v>0.006025707706110892</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01496691092011826</v>
+        <v>0.002989016232548098</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02076357419574771</v>
+        <v>0.002536977682739558</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02297288165298965</v>
+        <v>0.00255957759146696</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01124803376464085</v>
+        <v>0.002150259505663429</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01470297873364507</v>
+        <v>0.002652491018874278</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0327375625998135</v>
+        <v>0.001950206589547112</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03309439232604517</v>
+        <v>0.005699847435132024</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02019871237165734</v>
+        <v>0.002438465753642997</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02379613606745488</v>
+        <v>0.011496456076116</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02278637315748001</v>
+        <v>0.003257929610559183</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009193934026653649</v>
+        <v>0.001621990372571097</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03181157376828449</v>
+        <v>0.001797540974658194</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02889595501365087</v>
+        <v>0.002220754512966133</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01815254553937771</v>
+        <v>0.006774670336846174</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01817926278756858</v>
+        <v>0.003892340834664119</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03475918208634207</v>
+        <v>0.01347810176514628</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02248504037403051</v>
+        <v>0.002444418973499026</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03672713918649888</v>
+        <v>0.005092421891937706</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01771164479018504</v>
+        <v>0.001701830829800865</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03047447727614198</v>
+        <v>0.02069042046084759</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04443434272071206</v>
+        <v>0.00846239460321542</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03642320589067703</v>
+        <v>0.01068634332815103</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02294723805494187</v>
+        <v>0.01033783419354151</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01656710485003338</v>
+        <v>0.002068635977188027</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02636899627120369</v>
+        <v>0.003775469260785327</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03045519769347542</v>
+        <v>0.003161705485442761</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03438502241249489</v>
+        <v>0.007736250010127395</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01194674579484897</v>
+        <v>0.002671369882040104</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03303915258017646</v>
+        <v>0.002774641258704974</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01367105959581918</v>
+        <v>0.004146192712602981</v>
       </c>
     </row>
   </sheetData>
